--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -575,7 +575,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>45954.49015046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45419</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45586</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45779.6775</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45545</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45517</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45469</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45751</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45425</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45982.46971064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45895</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44477</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>44966</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45979.63030092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45517</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45422</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>45929.45290509259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45819.60576388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45880.67747685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45679.40699074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45614.54873842592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>45835.43947916666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45888.34524305556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45952.46920138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44966</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>45776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44966</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>45187</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45940.40804398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>45889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45407.05788194444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44806</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>45625.32383101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45897.56300925926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45856.4552662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45517</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45782</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44776</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45798.64947916667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45596.59109953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45817.53871527778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45813.49040509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45233.38612268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44293</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44806</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>45456</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45819.65783564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>44477</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45775.36545138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>46045.485625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45385.51104166666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45770.46903935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44883</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44474.53888888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44712</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44900</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45624.61491898148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44806</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45804.4903125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45813.49072916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45897.61719907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45811.67803240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44607</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>45926.65668981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45834.45671296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45834.47548611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45387</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45959.334375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45985.38775462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45979.68783564815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45385.49314814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>45545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45576.60398148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44293</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44503</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45771.49020833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>45586.5674074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>44277</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45939.5735300926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45952.59424768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45875.38596064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45772.69864583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45625.32978009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44279</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45533.43868055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45236</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45678</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44462.9562037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44791.94581018519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45810.53988425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>45813.59454861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45904.34236111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45834.42543981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>45712.53209490741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45932.40699074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>45944.61539351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45954.66971064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45954.65657407408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45490.95396990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45475.94865740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44806</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>46006.49081018518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>46006.49113425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>46049.58273148148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45209</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44928</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45470.96880787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>45517.50332175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45384</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45237</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>44986</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45643</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44293</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44826</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45595.50819444445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44477</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45803.45106481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45888.344375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45617.67353009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>45804.46908564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45834.59467592592</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45439</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45931.55247685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45931.55266203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45932.57346064815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45611.51084490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45841</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45943.61550925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45527.36498842593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45511</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45853.45060185185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45573</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45856.45047453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45608</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45877.69828703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>45880.49006944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45974.45760416667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45782</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45783.42753472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45594.5742824074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>46029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45994.38944444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45996.42788194444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45450</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45079</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45999.46969907408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>44529</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45517.675</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45555.48267361111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45384</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45601.59604166666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>45560.61601851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45555.42225694445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45775.48989583334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45783.49015046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45615.40983796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>45517.9575462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45797</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44860.95508101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44546</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44586.93952546296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44386.93510416667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>44284.57520833334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44575.5847337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44536.65293981481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44340.82405092593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44399</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44579.9719212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44293</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44587</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44803</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44529</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44839.95467592592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44392</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44729.94224537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44293</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44293</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44446</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44277</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44336.540625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44377</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44425.85641203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44564</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44536.66070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44487.50133101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44245</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44446</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44810.54903935185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44698.94268518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44321</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44530</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44615</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>44694</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44575</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44378.64378472222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44705.9403125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44293</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44358</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44847.53822916667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44648</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44253</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44314.56744212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44839</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44529</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44529</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44599</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44384</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44810.56636574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44594.48864583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44594.4892824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44795.94754629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44306.55199074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44306.55394675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44462</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45365.31883101852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45289</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45359.57847222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45533.66685185185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45063</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45534</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45426.38322916667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44837</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45625.48765046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         <v>45267</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45723.38790509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45588.40413194444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45532.62950231481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45670.41112268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45183</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45231.53321759259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45191</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45351.98450231482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45686.62828703703</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45419.49334490741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45419.5853587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45583.69847222222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45743.38224537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44435</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45484.5740162037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45040</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45680.4165625</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45278.44128472222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45280</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45329</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45176</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>45691.64266203704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>45484</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44473</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45645.53202546296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45419.94912037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45638.58019675926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44361</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44951</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44923</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45511.55600694445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45170</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45799.57385416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45799.42777777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45799.48994212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45797.96236111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45799.46949074074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45203</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45802.34440972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45258</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45586.50625</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45259.47972222222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45483.59328703704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45441.56905092593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45802.34460648148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44487.60703703704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44740</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45268.9262962963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45587.47828703704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45802.34451388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45387.78174768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45801.34476851852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45343</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45804.67760416667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45804.63596064815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45804.63642361111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45804.75445601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45155.954375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45804.5984375</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45586.365625</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45804.51075231482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45804.51104166666</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>45804.60972222222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         <v>45804.59414351852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>45804.51092592593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45805.47840277778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>45805.60230324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45804.63658564815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45806.48989583334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45806.42745370371</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45523.48854166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>45810.53163194445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45811.61496527777</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45769.79763888889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>44277</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45548.36175925926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45811.63626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45516.68450231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45443.5894675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45418</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45426.65157407407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45888.34472222222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45812.59011574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45813.34561342592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45813.49083333334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45841.40587962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45890.55284722222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45890.69837962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45632.46771990741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45813.53174768519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45890.45547453704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>45813.49018518518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>45890.4525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>45812.58002314815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45611.51072916666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>45895.34478009259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>45894.42746527777</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>45895.57349537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45701.55769675926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45895</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45815.34414351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>45817.69681712963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45817.68596064814</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>45119.57108796296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29328,7 +29328,7 @@
         <v>45897.6292824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>45813.961875</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45815.68543981481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45897.36572916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>45818.48989583334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45818.55263888889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>45140</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>45896</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>45897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45897.5744675926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45896.58326388889</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44459</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>45819.65709490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45898.60109953704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>45898.61517361111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>45818.42753472222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45898.65660879629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>45568.3975462963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>45819.34469907408</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45819.40668981482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45818.36512731481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30560,7 +30560,7 @@
         <v>45898.6153587963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>45819.40679398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>45903.55403935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45903.43454861111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45539.50018518518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45903.55162037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45370.01967592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45832.52571759259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45905.39195601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>45905.34423611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45905.42969907408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45063.94199074074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45823.34459490741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45823.34438657408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45908.61515046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>45824.46353009259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>45909.49278935185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>45825.34517361111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45825.34466435185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44715.92443287037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45824.42381944445</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45911.44244212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45911.44350694444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45434.94887731481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45823.34451388889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45898</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45911.6327662037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45911.44184027778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45911.46148148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45911.62758101852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45825.9468287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45911.34483796296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45826.55306712963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45915.49266203704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45915.42771990741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45503</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45915</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45603.59056712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45915.49019675926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45915</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45289</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45915</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45827.49047453704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45826</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45826</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45730.40104166666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45279.92756944444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45131</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45917.59888888889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45919.61225694444</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45919.50256944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45919.43584490741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45919.47131944444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45918.37195601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45919.41850694444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45919.61523148148</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45922.961875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45832.51086805556</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45832.51111111111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45009.57518518518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45922.65672453704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45306</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45832.57887731482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45832.59436342592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>45922.49230324074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>45923</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>45923.34453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44572</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45922.40762731482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>45511.95144675926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45548.57025462963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>45708.40821759259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45832.63599537037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45082</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45928.86563657408</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>45630.6140162037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45928.87376157408</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45575.7077662037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45533.3422337963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45929.69876157407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>44280.62068287037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45929.71310185185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45835.54142361111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45929.69799768519</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45926.69831018519</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
         <v>45929.70355324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>45834.57930555556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35927,7 +35927,7 @@
         <v>45926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>45539.5029050926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>45154</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36103,7 +36103,7 @@
         <v>45930</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45930.34469907408</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         <v>45931.34659722223</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45712.53197916667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>45930.63619212963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>45930.63626157407</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45930.34533564815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45930.63659722222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45526.4034375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>45931.3466550926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45933.55259259259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45839.36935185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45819</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45769.49987268518</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>45749.60973379629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45476.61347222222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>44267</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>45586.53743055555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45839.64721064815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45932.34421296296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>45933.43004629629</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45936.3859837963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45936.3865162037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45936.6222337963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45840.42746527777</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45937.44760416666</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>45937.56285879629</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>45936.91108796297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>45670.40652777778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45525.38040509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45525.38228009259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45938.65011574074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45294</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>45937.63592592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45684.50761574074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44853</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38287,7 +38287,7 @@
         <v>45701.61520833334</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>45939.49037037037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45769.8025462963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45938.61060185185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45939.55241898148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>45842.36243055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>45940.6290625</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45201.94844907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>45390</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>45943.37563657408</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45943.49340277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         <v>45842.35685185185</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45940.34486111111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39048,7 +39048,7 @@
         <v>45943.36899305556</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>45943.70643518519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45943.71228009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>45217.444375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45943.69686342592</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45943.70216435185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45845.3633912037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45842.37199074074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45845.36954861111</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>45294</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>45581.67739583334</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         <v>45944.6984837963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>45293</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>45944.36600694444</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>45944.64006944445</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39918,7 +39918,7 @@
         <v>45575.69966435185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39975,7 +39975,7 @@
         <v>45911.46315972223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40032,7 +40032,7 @@
         <v>45945.55256944444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45945.47693287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>45945.51104166666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45455.63024305556</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45455.63731481481</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45945</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45947.63592592593</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45266</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45945.91894675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45849.49047453704</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45947.4678587963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>45947.465</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>45947.46655092593</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>45853.29931712963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>45950.36480324074</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40927,7 +40927,7 @@
         <v>45853.46494212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40984,7 +40984,7 @@
         <v>45853.30270833334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>45951.50565972222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45854.67538194444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45854.66877314815</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45856.63608796296</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45950.6366550926</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45426</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45859.88079861111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45860.344375</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45859.77703703703</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45859</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45693.6833449074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45953.71564814815</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45952.72754629629</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45953.50086805555</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45953.70571759259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45483.71451388889</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41968,7 +41968,7 @@
         <v>44903</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42025,7 +42025,7 @@
         <v>45953.51113425926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45952.40701388889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>45953.72064814815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>45952.63679398148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>45351.40697916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>45953.44831018519</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45909.85438657407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>45785.25814814815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45868.57342592593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45954.57357638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45533.41498842592</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45957.62528935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45264</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45266.95052083334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45266.95074074074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45957.63680555556</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>44902</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>45873.38351851852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45512.96096064815</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45958.49011574074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>45958.49056712963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>45215</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43319,7 +43319,7 @@
         <v>44902</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43433,7 +43433,7 @@
         <v>45875.67797453704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45875.3862962963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43557,7 +43557,7 @@
         <v>45874.4740625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45873.46881944445</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45873.47069444445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43738,7 +43738,7 @@
         <v>45875.38579861111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>45868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43857,7 +43857,7 @@
         <v>44775.94119212963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45877.63582175926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43981,7 +43981,7 @@
         <v>45877.56710648148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>45407.05797453703</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45196</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>45959.43579861111</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>45958.40675925926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45960.49020833334</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45960.46951388889</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45877.5738425926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44467,7 +44467,7 @@
         <v>45960.57361111111</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>45960.69841435185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45351.41600694445</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45265.9577199074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45553.29927083333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45219.42320601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>45481.92946759259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45877.51092592593</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45960.61547453704</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45020,7 +45020,7 @@
         <v>45624.61572916667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45961</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45561.46900462963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44685.45633101852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44438</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45966.71946759259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45966.53177083333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45966.66768518519</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45511</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45967.62862268519</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45967.65983796296</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45569</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>45882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45971.64445601852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45883.59412037037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45736.40671296296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45971.54526620371</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45971.58337962963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45968</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46123,7 +46123,7 @@
         <v>45638.54635416667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46180,7 +46180,7 @@
         <v>45968.66726851852</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46237,7 +46237,7 @@
         <v>45968</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45968</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45883.57467592593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45883.63628472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46475,7 +46475,7 @@
         <v>45882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45971.66145833334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45586.56431712963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46651,7 +46651,7 @@
         <v>45208</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45208</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46765,7 +46765,7 @@
         <v>45674.47496527778</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>45561.48825231481</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>45595.50820601852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46936,7 +46936,7 @@
         <v>45524.55398148148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46993,7 +46993,7 @@
         <v>45050</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47050,7 +47050,7 @@
         <v>45974.45790509259</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>44979</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45042</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45975.36277777778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45974.53696759259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45426.54224537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45838.6778587963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47454,7 +47454,7 @@
         <v>45280</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -47511,7 +47511,7 @@
         <v>45280.92618055556</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47573,7 +47573,7 @@
         <v>45636.35909722222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>45979.34672453703</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>45734</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47754,7 +47754,7 @@
         <v>45979.34543981482</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47816,7 +47816,7 @@
         <v>45979.57696759259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47873,7 +47873,7 @@
         <v>45981.31667824074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47930,7 +47930,7 @@
         <v>45981.55693287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47992,7 +47992,7 @@
         <v>45330</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48049,7 +48049,7 @@
         <v>45981.64236111111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48106,7 +48106,7 @@
         <v>45980.59431712963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>45749.59398148148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48225,7 +48225,7 @@
         <v>45981.63472222222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48282,7 +48282,7 @@
         <v>45985.38751157407</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>45420.34979166667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48406,7 +48406,7 @@
         <v>45141.95964120371</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>45985.57662037037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         <v>45985.61513888889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48582,7 +48582,7 @@
         <v>44825.60015046296</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48639,7 +48639,7 @@
         <v>45985.61510416667</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48696,7 +48696,7 @@
         <v>45985.63704861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48753,7 +48753,7 @@
         <v>45236</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48810,7 +48810,7 @@
         <v>44845</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48867,7 +48867,7 @@
         <v>45985.61512731481</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>46029.46987268519</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48981,7 +48981,7 @@
         <v>45986.38626157407</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45551.34488425926</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49095,7 +49095,7 @@
         <v>45390</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45987</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>46029.60032407408</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>44399</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>45987.42820601852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
         <v>45027</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         <v>45630.62520833333</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>45987.34506944445</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>45986.60412037037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49613,7 +49613,7 @@
         <v>45533.42659722222</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49670,7 +49670,7 @@
         <v>45281.92891203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49732,7 +49732,7 @@
         <v>45742.63574074074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49794,7 +49794,7 @@
         <v>45502</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49851,7 +49851,7 @@
         <v>45989.48791666667</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>45989.49638888889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45989.50196759259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50022,7 +50022,7 @@
         <v>45684.50217592593</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50079,7 +50079,7 @@
         <v>45147</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50136,7 +50136,7 @@
         <v>45191</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50198,7 +50198,7 @@
         <v>46031.49944444445</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50255,7 +50255,7 @@
         <v>45989.48997685185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50317,7 +50317,7 @@
         <v>45989</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50374,7 +50374,7 @@
         <v>46031.62633101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50431,7 +50431,7 @@
         <v>46031.63359953704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -50488,7 +50488,7 @@
         <v>46031.64333333333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>46031.64733796296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50602,7 +50602,7 @@
         <v>45988.61516203704</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50659,7 +50659,7 @@
         <v>45988.65121527778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50716,7 +50716,7 @@
         <v>45988.66127314815</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50773,7 +50773,7 @@
         <v>45988.7234375</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50830,7 +50830,7 @@
         <v>45989.53782407408</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50887,7 +50887,7 @@
         <v>46031.49096064815</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50944,7 +50944,7 @@
         <v>45992</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51001,7 +51001,7 @@
         <v>45992.65116898148</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51058,7 +51058,7 @@
         <v>45993.33128472222</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51115,7 +51115,7 @@
         <v>45992.59430555555</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>46034.32285879629</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51234,7 +51234,7 @@
         <v>45992</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         <v>45993.67987268518</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51348,7 +51348,7 @@
         <v>45993.6353125</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51405,7 +51405,7 @@
         <v>46035.58862268519</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -51462,7 +51462,7 @@
         <v>46034.331875</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -51519,7 +51519,7 @@
         <v>45595.4177662037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -51576,7 +51576,7 @@
         <v>45994.43094907407</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>46036.59519675926</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>46035</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45020.94496527778</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45995.55276620371</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45058</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>46036.62737268519</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45996.42769675926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52052,7 +52052,7 @@
         <v>45996.42826388889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45996.42805555555</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52176,7 +52176,7 @@
         <v>45001</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52233,7 +52233,7 @@
         <v>44911.58445601852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52290,7 +52290,7 @@
         <v>45700.39645833334</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52347,7 +52347,7 @@
         <v>45729</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>46041.56872685185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>46043.58373842593</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -52518,7 +52518,7 @@
         <v>46001.65951388889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -52575,7 +52575,7 @@
         <v>45929</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>45453.95467592592</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -52699,7 +52699,7 @@
         <v>44575</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -52756,7 +52756,7 @@
         <v>44575.55935185185</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -52813,7 +52813,7 @@
         <v>45679.38309027778</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -52870,7 +52870,7 @@
         <v>44914</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -52927,7 +52927,7 @@
         <v>45399.94496527778</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -52989,7 +52989,7 @@
         <v>46043.57982638889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53046,7 +53046,7 @@
         <v>45199.97042824074</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53108,7 +53108,7 @@
         <v>45741</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53165,7 +53165,7 @@
         <v>46001.59416666667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53222,7 +53222,7 @@
         <v>46001.59425925926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53279,7 +53279,7 @@
         <v>46045</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53341,7 +53341,7 @@
         <v>45534.42809027778</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53398,7 +53398,7 @@
         <v>44776</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -53455,7 +53455,7 @@
         <v>45742.34414351852</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -53517,7 +53517,7 @@
         <v>45742.34449074074</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -53579,7 +53579,7 @@
         <v>46034.58386574074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -53636,7 +53636,7 @@
         <v>46002.4403587963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -53693,7 +53693,7 @@
         <v>44586</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -53750,7 +53750,7 @@
         <v>46003.62914351852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -53812,7 +53812,7 @@
         <v>45726.40868055556</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -53869,7 +53869,7 @@
         <v>46003.61158564815</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -53926,7 +53926,7 @@
         <v>46003.62962962963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -53988,7 +53988,7 @@
         <v>45294</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54050,7 +54050,7 @@
         <v>46045.56296296296</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54107,7 +54107,7 @@
         <v>45153.65226851852</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54164,7 +54164,7 @@
         <v>45120</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54221,7 +54221,7 @@
         <v>46006.490625</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>46048.60271990741</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45355</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -54397,7 +54397,7 @@
         <v>45355</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -54454,7 +54454,7 @@
         <v>45355</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -54511,7 +54511,7 @@
         <v>46006.32145833333</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -54568,7 +54568,7 @@
         <v>45686</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -54625,7 +54625,7 @@
         <v>45891</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -54687,7 +54687,7 @@
         <v>45499</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -54749,7 +54749,7 @@
         <v>46049.55258101852</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         <v>46050.61548611111</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -54868,7 +54868,7 @@
         <v>45594.57427083333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -54925,7 +54925,7 @@
         <v>45231</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>46051.49005787037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55049,7 +55049,7 @@
         <v>46008.65883101852</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         <v>45959</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55168,7 +55168,7 @@
         <v>46008.6502662037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55225,7 +55225,7 @@
         <v>46010.65959490741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55282,7 +55282,7 @@
         <v>46052.36512731481</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55339,7 +55339,7 @@
         <v>44929</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -55396,7 +55396,7 @@
         <v>46055.59460648148</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -55458,7 +55458,7 @@
         <v>44924</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -55515,7 +55515,7 @@
         <v>46010.64340277778</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -55572,7 +55572,7 @@
         <v>46010.89377314815</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         <v>46052.32890046296</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -55686,7 +55686,7 @@
         <v>46051.95127314814</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -55743,7 +55743,7 @@
         <v>45470</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -55800,7 +55800,7 @@
         <v>46055.59442129629</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -55862,7 +55862,7 @@
         <v>45474.65244212963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -55919,7 +55919,7 @@
         <v>46013.61951388889</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -55976,7 +55976,7 @@
         <v>45236.96789351852</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56038,7 +56038,7 @@
         <v>45236</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56100,7 +56100,7 @@
         <v>46052.36511574074</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56157,7 +56157,7 @@
         <v>46052.36515046296</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56214,7 +56214,7 @@
         <v>46013.62353009259</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56271,7 +56271,7 @@
         <v>44895.66629629629</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56328,7 +56328,7 @@
         <v>45335</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -56390,7 +56390,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -56447,7 +56447,7 @@
         <v>46014.28792824074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -56504,7 +56504,7 @@
         <v>46057</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -56561,7 +56561,7 @@
         <v>45387.37010416666</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -56618,7 +56618,7 @@
         <v>45219</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -56675,7 +56675,7 @@
         <v>46057</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -56732,7 +56732,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -56789,7 +56789,7 @@
         <v>44994.54274305556</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -56846,7 +56846,7 @@
         <v>46059.59258101852</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -56908,7 +56908,7 @@
         <v>45866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -56970,7 +56970,7 @@
         <v>45933.4900462963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57032,7 +57032,7 @@
         <v>45922.65715277778</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45933.46930555555</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57156,7 +57156,7 @@
         <v>45999.46935185185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57218,7 +57218,7 @@
         <v>45638</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57275,7 +57275,7 @@
         <v>45008</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -57332,7 +57332,7 @@
         <v>45060</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -57389,7 +57389,7 @@
         <v>45170</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -57446,7 +57446,7 @@
         <v>46029</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -57508,7 +57508,7 @@
         <v>45349</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -57565,7 +57565,7 @@
         <v>45929.40664351852</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -57627,7 +57627,7 @@
         <v>45664.47284722222</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -57684,7 +57684,7 @@
         <v>45169.93925925926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         <v>45968.59439814815</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -57808,7 +57808,7 @@
         <v>45733.33921296296</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -57865,7 +57865,7 @@
         <v>45979.67789351852</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -57927,7 +57927,7 @@
         <v>45895</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -57989,7 +57989,7 @@
         <v>45895.46922453704</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         <v>45932.67946759259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58113,7 +58113,7 @@
         <v>45968.59447916667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58175,7 +58175,7 @@
         <v>45972</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58237,7 +58237,7 @@
         <v>45915.51079861111</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58299,7 +58299,7 @@
         <v>45673.49039351852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -58361,7 +58361,7 @@
         <v>44575</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -58418,7 +58418,7 @@
         <v>45391.9533912037</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -58480,7 +58480,7 @@
         <v>45539.50243055556</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -58542,7 +58542,7 @@
         <v>44434</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -58599,7 +58599,7 @@
         <v>44740.66048611111</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -58656,7 +58656,7 @@
         <v>45678</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -58713,7 +58713,7 @@
         <v>45631.48989583334</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -58775,7 +58775,7 @@
         <v>45561</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>44987.60319444445</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45763.43650462963</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45502</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45503.32976851852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45419.60266203704</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59127,7 +59127,7 @@
         <v>44606</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59184,7 +59184,7 @@
         <v>45170</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59241,7 +59241,7 @@
         <v>45653.66269675926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59298,7 +59298,7 @@
         <v>45420.49851851852</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -59360,7 +59360,7 @@
         <v>45387.4865625</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -59417,7 +59417,7 @@
         <v>45420</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -59479,7 +59479,7 @@
         <v>45200</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -59541,7 +59541,7 @@
         <v>45202.48180555556</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -59598,7 +59598,7 @@
         <v>45742.59415509259</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -59660,7 +59660,7 @@
         <v>45233.40039351852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -59717,7 +59717,7 @@
         <v>45079.94229166667</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         <v>44823</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -59836,7 +59836,7 @@
         <v>45441.58313657407</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -59893,7 +59893,7 @@
         <v>45236</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -59955,7 +59955,7 @@
         <v>45511</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60012,7 +60012,7 @@
         <v>45450</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60069,7 +60069,7 @@
         <v>45428.97185185185</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60131,7 +60131,7 @@
         <v>44874</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60188,7 +60188,7 @@
         <v>45714.59415509259</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60250,7 +60250,7 @@
         <v>45279.92739583334</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -60307,7 +60307,7 @@
         <v>45504</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -60364,7 +60364,7 @@
         <v>45259.46332175926</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -60421,7 +60421,7 @@
         <v>45548.66489583333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -60478,7 +60478,7 @@
         <v>45217.55832175926</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -60535,7 +60535,7 @@
         <v>45320</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         <v>45762.61128472222</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -60654,7 +60654,7 @@
         <v>45539.49776620371</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -60716,7 +60716,7 @@
         <v>45642</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -60773,7 +60773,7 @@
         <v>44712</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -60830,7 +60830,7 @@
         <v>45327</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -60887,7 +60887,7 @@
         <v>45009.56106481481</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -60944,7 +60944,7 @@
         <v>45502.46423611111</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61001,7 +61001,7 @@
         <v>45280.92613425926</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61063,7 +61063,7 @@
         <v>45280</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61125,7 +61125,7 @@
         <v>45166</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61187,7 +61187,7 @@
         <v>45560.61606481481</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61249,7 +61249,7 @@
         <v>45560.61496527777</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
         <v>44350</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>44594.48569444445</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -61425,7 +61425,7 @@
         <v>45742.55269675926</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45735.34424768519</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45743.62734953704</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45171</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45148</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -61725,7 +61725,7 @@
         <v>44564</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>44575</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -61839,7 +61839,7 @@
         <v>45231.5221875</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -61896,7 +61896,7 @@
         <v>45561.47431712963</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -61953,7 +61953,7 @@
         <v>45685.59083333334</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62010,7 +62010,7 @@
         <v>44974</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62067,7 +62067,7 @@
         <v>45751.69967592593</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62124,7 +62124,7 @@
         <v>44841</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62186,7 +62186,7 @@
         <v>45202.46581018518</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62243,7 +62243,7 @@
         <v>44610</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -62300,7 +62300,7 @@
         <v>45327</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -62357,7 +62357,7 @@
         <v>45727.4261574074</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -62414,7 +62414,7 @@
         <v>45590.47684027778</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -62471,7 +62471,7 @@
         <v>45646.72293981481</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -62528,7 +62528,7 @@
         <v>45202</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -62585,7 +62585,7 @@
         <v>44286.58679398148</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -62642,7 +62642,7 @@
         <v>45293</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -62699,7 +62699,7 @@
         <v>45182</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45603.43164351852</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -62813,7 +62813,7 @@
         <v>45642.53166666667</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -62870,7 +62870,7 @@
         <v>45516</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -62927,7 +62927,7 @@
         <v>45749.58319444444</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -62984,7 +62984,7 @@
         <v>45674.47341435185</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63041,7 +63041,7 @@
         <v>45351</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63103,7 +63103,7 @@
         <v>45289</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63160,7 +63160,7 @@
         <v>45188.6505787037</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -63222,7 +63222,7 @@
         <v>45769.40174768519</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -63279,7 +63279,7 @@
         <v>45771.5743287037</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -63341,7 +63341,7 @@
         <v>45498.66611111111</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -63398,7 +63398,7 @@
         <v>45741.26008101852</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -63455,7 +63455,7 @@
         <v>44907.9645949074</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -63512,7 +63512,7 @@
         <v>45198</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -63574,7 +63574,7 @@
         <v>45205</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -63631,7 +63631,7 @@
         <v>45638.57283564815</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -63688,7 +63688,7 @@
         <v>45770.42762731481</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45359.5732175926</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -63807,7 +63807,7 @@
         <v>45779.37599537037</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45782.59024305556</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45780.39354166666</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45119.49261574074</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -64040,7 +64040,7 @@
         <v>45785</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45260</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -64159,7 +64159,7 @@
         <v>45784.34417824074</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45582.36490740741</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45789.57361111111</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45789.4903587963</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -64402,7 +64402,7 @@
         <v>45789.46931712963</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -64464,7 +64464,7 @@
         <v>45786.6349537037</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -64521,7 +64521,7 @@
         <v>45526.48329861111</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -64578,7 +64578,7 @@
         <v>45790.57836805555</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -64635,7 +64635,7 @@
         <v>45790.65690972222</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -64697,7 +64697,7 @@
         <v>45790.58265046297</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -64754,7 +64754,7 @@
         <v>45793.46954861111</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -64816,7 +64816,7 @@
         <v>45795.34442129629</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -64878,7 +64878,7 @@
         <v>45795.34497685185</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -64940,7 +64940,7 @@
         <v>45797.56049768518</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -64997,7 +64997,7 @@
         <v>45794.34425925926</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -65059,7 +65059,7 @@
         <v>45795.3446412037</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -65121,7 +65121,7 @@
         <v>45795.34472222222</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -65183,7 +65183,7 @@
         <v>45797.59502314815</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -65245,7 +65245,7 @@
         <v>45796.5216087963</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -65302,7 +65302,7 @@
         <v>45797.63576388889</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -65364,7 +65364,7 @@
         <v>45794.34436342592</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         <v>45795.34505787037</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -65488,7 +65488,7 @@
         <v>45794.34447916667</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>

--- a/Översikt BERG.xlsx
+++ b/Översikt BERG.xlsx
@@ -575,7 +575,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>45954.49015046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45419</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45586</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>45779.6775</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>45545</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45517</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45469</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45751</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45425</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45982.46971064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44853</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45895</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>44477</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>44966</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45979.63030092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45517</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45422</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44953</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>45929.45290509259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45819.60576388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45880.67747685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45679.40699074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45614.54873842592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>45835.43947916666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44253</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45888.34524305556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45952.46920138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44966</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>45776</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44966</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>45187</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45940.40804398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>45889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45407.05788194444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44806</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>45625.32383101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45897.56300925926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45856.4552662037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45517</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>45889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45782</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44776</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45798.64947916667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45596.59109953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45817.53871527778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45813.49040509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45233.38612268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>45412</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44293</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44806</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>45456</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45819.65783564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>44477</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45775.36545138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>46045.485625</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45385.51104166666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45770.46903935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44883</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44474.53888888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44712</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44900</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45624.61491898148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44806</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45804.4903125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45813.49072916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45897.61719907408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45811.67803240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44607</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>45926.65668981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45834.45671296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45834.47548611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45387</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45959.334375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>45985.38775462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45979.68783564815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>45385.49314814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>45545</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45576.60398148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44293</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44503</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45771.49020833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>45586.5674074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>44277</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45939.5735300926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45952.59424768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45875.38596064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45772.69864583333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45625.32978009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44279</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45533.43868055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45236</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45678</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44462.9562037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44791.94581018519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45810.53988425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>45813.59454861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45904.34236111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45834.42543981481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>45712.53209490741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45932.40699074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>45944.61539351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45954.66971064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45954.65657407408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45490.95396990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45475.94865740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44806</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>46006.49081018518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>46006.49113425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>46049.58273148148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45209</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44928</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45470.96880787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>45517.50332175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45384</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>45237</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>44986</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45478</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45643</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>45782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44293</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44826</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45595.50819444445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44477</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45803.45106481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45888.344375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45617.67353009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>45804.46908564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45834.59467592592</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45439</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45931.55247685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45931.55266203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45932.57346064815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45611.51084490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45841</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45943.61550925926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>45527.36498842593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45511</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>45853.45060185185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45573</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45856.45047453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45608</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45877.69828703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>45880.49006944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45974.45760416667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45782</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45783.42753472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45594.5742824074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>46029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45994.38944444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45996.42788194444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45450</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45079</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44776</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45999.46969907408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>44529</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45517.675</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45555.48267361111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45384</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45601.59604166666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>45560.61601851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45555.42225694445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45775.48989583334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45783.49015046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45615.40983796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>45517.9575462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45797</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44860.95508101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44546</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44586.93952546296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44386.93510416667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>44284.57520833334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44575.5847337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>44536.65293981481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44340.82405092593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44399</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44579.9719212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44293</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44587</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44803</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44529</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44839.95467592592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44392</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44729.94224537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44293</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44293</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44446</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44277</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44277</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44336.540625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44377</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44425.85641203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44564</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44536.66070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44487.50133101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44245</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44446</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44810.54903935185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44698.94268518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44321</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44530</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>44615</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>44694</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44575</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>44378.64378472222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44705.9403125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44293</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44358</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44847.53822916667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44648</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44253</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44314.56744212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44839</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44529</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44529</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44599</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44384</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44810.56636574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44594.48864583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44594.4892824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>44445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44795.94754629629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44306.55199074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44306.55394675926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44462</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>45365.31883101852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45289</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45359.57847222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45533.66685185185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45063</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45534</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45426.38322916667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44837</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45625.48765046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22550,7 +22550,7 @@
         <v>45267</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45723.38790509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45588.40413194444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45532.62950231481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45670.41112268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45183</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45231.53321759259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45191</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45351.98450231482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45686.62828703703</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45419.49334490741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45419.5853587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45583.69847222222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45743.38224537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44435</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45484.5740162037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45040</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45680.4165625</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45278.44128472222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45280</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45329</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45176</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>45691.64266203704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>45484</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44473</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45645.53202546296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45419.94912037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45638.58019675926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44361</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44951</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44923</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45511.55600694445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45170</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45799.57385416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44712</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45799.42777777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45799.48994212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45797.96236111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45799.46949074074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45203</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45802.34440972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45258</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45586.50625</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45259.47972222222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45483.59328703704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45441.56905092593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45802.34460648148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44487.60703703704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44740</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45268.9262962963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45587.47828703704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45802.34451388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45387.78174768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45801.34476851852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45343</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45804.67760416667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45804.63596064815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45804.63642361111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45804.75445601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45756</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45155.954375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45804.5984375</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45586.365625</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45804.51075231482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45804.51104166666</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>45804.60972222222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         <v>45804.59414351852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>45804.51092592593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45805.47840277778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>45805.60230324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45804.63658564815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45806.48989583334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45806.42745370371</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45523.48854166667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>45810.53163194445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45811.61496527777</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45769.79763888889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>44277</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45548.36175925926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45811.63626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45516.68450231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45443.5894675926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45418</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45426.65157407407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45888.34472222222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45812.59011574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45813.34561342592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45813.49083333334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45841.40587962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45890.55284722222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45890.69837962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45632.46771990741</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45813.53174768519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45890.45547453704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>45813.49018518518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>45890.4525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>45812.58002314815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45611.51072916666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>45895.34478009259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>45894.42746527777</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>45895.57349537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45701.55769675926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45895</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45815.34414351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>45817.69681712963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45817.68596064814</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>45119.57108796296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29328,7 +29328,7 @@
         <v>45897.6292824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>45813.961875</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45815.68543981481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45897.36572916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>45818.48989583334</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45818.55263888889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>45140</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>45896</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>45897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45897.5744675926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45896.58326388889</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44459</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>45819.65709490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>45898.60109953704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>45898.61517361111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>45818.42753472222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>45898.65660879629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>45568.3975462963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>45819.34469907408</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45819.40668981482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45818.36512731481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30560,7 +30560,7 @@
         <v>45898.6153587963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>45819.40679398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>45903.55403935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45903.43454861111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45539.50018518518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45903.55162037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>45370.01967592593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45832.52571759259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45905.39195601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>45905.34423611111</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31160,7 +31160,7 @@
         <v>45905.42969907408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45063.94199074074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45823.34459490741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45823.34438657408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45908.61515046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>45824.46353009259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>45909.49278935185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>45825.34517361111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45825.34466435185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44715.92443287037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45824.42381944445</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45911.44244212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45911.44350694444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45434.94887731481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -31988,7 +31988,7 @@
         <v>45823.34451388889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45898</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45911.6327662037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45911.44184027778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45911.46148148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45911.62758101852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45825.9468287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45911.34483796296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45826.55306712963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45915.49266203704</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45915.42771990741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45503</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45915</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45603.59056712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45915.49019675926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45915</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45289</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45915</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45827.49047453704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45826</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45826</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45730.40104166666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45279.92756944444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45131</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45917.59888888889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45919.61225694444</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45919.50256944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45919.43584490741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45919.47131944444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45918.37195601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45919.41850694444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45919.61523148148</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45922.961875</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45832.51086805556</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45832.51111111111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45009.57518518518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45922.65672453704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45306</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45832.57887731482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45832.59436342592</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>45922.49230324074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>45923</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>45923.34453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44572</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45922.40762731482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>45511.95144675926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45548.57025462963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>45708.40821759259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45832.63599537037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45082</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45928.86563657408</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>45630.6140162037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45928.87376157408</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45575.7077662037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45533.3422337963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45929.69876157407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>44280.62068287037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45929.71310185185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45835.54142361111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45929.69799768519</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45926.69831018519</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
         <v>45929.70355324074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>45834.57930555556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -35927,7 +35927,7 @@
         <v>45926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>45539.5029050926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>45154</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36103,7 +36103,7 @@
         <v>45930</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45930.34469907408</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         <v>45931.34659722223</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45712.53197916667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>45930.63619212963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>45930.63626157407</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36465,7 +36465,7 @@
         <v>45930.34533564815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45930.63659722222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45526.4034375</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>45931.3466550926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45933.55259259259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45839.36935185185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45819</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45769.49987268518</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>45749.60973379629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45476.61347222222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>44267</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>45586.53743055555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45839.64721064815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45932.34421296296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>45933.43004629629</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45936.3859837963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45936.3865162037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45936.6222337963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         <v>45840.42746527777</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45937.44760416666</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37650,7 +37650,7 @@
         <v>45937.56285879629</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -37707,7 +37707,7 @@
         <v>45936.91108796297</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -37764,7 +37764,7 @@
         <v>45670.40652777778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37821,7 +37821,7 @@
         <v>45525.38040509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45525.38228009259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45938.65011574074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45294</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>45937.63592592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45684.50761574074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44853</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38230,7 +38230,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38287,7 +38287,7 @@
         <v>45701.61520833334</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38344,7 +38344,7 @@
         <v>45939.49037037037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>45769.8025462963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45938.61060185185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>45939.55241898148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>45842.36243055556</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>45940.6290625</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>45201.94844907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>45390</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>45943.37563657408</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45943.49340277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -38929,7 +38929,7 @@
         <v>45842.35685185185</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -38986,7 +38986,7 @@
         <v>45940.34486111111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39048,7 +39048,7 @@
         <v>45943.36899305556</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39105,7 +39105,7 @@
         <v>45943.70643518519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39162,7 +39162,7 @@
         <v>45943.71228009259</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>45217.444375</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39276,7 +39276,7 @@
         <v>45943.69686342592</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         <v>45943.70216435185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>45845.3633912037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39447,7 +39447,7 @@
         <v>45842.37199074074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39504,7 +39504,7 @@
         <v>45845.36954861111</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>45294</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>45581.67739583334</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         <v>45944.6984837963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -39747,7 +39747,7 @@
         <v>45293</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39804,7 +39804,7 @@
         <v>45944.36600694444</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>45944.64006944445</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39918,7 +39918,7 @@
         <v>45575.69966435185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -39975,7 +39975,7 @@
         <v>45911.46315972223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40032,7 +40032,7 @@
         <v>45945.55256944444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45945.47693287037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>45945.51104166666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>45455.63024305556</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40270,7 +40270,7 @@
         <v>45455.63731481481</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40327,7 +40327,7 @@
         <v>45945</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45947.63592592593</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40451,7 +40451,7 @@
         <v>45266</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40508,7 +40508,7 @@
         <v>45945.91894675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40565,7 +40565,7 @@
         <v>45849.49047453704</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         <v>45947.4678587963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40689,7 +40689,7 @@
         <v>45947.465</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40751,7 +40751,7 @@
         <v>45947.46655092593</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40813,7 +40813,7 @@
         <v>45853.29931712963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -40870,7 +40870,7 @@
         <v>45950.36480324074</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40927,7 +40927,7 @@
         <v>45853.46494212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40984,7 +40984,7 @@
         <v>45853.30270833334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41041,7 +41041,7 @@
         <v>45951.50565972222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45854.67538194444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41155,7 +41155,7 @@
         <v>45854.66877314815</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41212,7 +41212,7 @@
         <v>45856.63608796296</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45950.6366550926</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45426</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41393,7 +41393,7 @@
         <v>45859.88079861111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41450,7 +41450,7 @@
         <v>45860.344375</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45859.77703703703</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45859</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45693.6833449074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45953.71564814815</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45952.72754629629</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45953.50086805555</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45953.70571759259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45483.71451388889</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -41968,7 +41968,7 @@
         <v>44903</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42025,7 +42025,7 @@
         <v>45953.51113425926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45952.40701388889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>45953.72064814815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>45952.63679398148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>45351.40697916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>45953.44831018519</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>45909.85438657407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>45785.25814814815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45868.57342592593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45954.57357638889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45533.41498842592</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45957.62528935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45264</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45266.95052083334</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45266.95074074074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45957.63680555556</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -42967,7 +42967,7 @@
         <v>44902</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43024,7 +43024,7 @@
         <v>45873.38351851852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45512.96096064815</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45958.49011574074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>45958.49056712963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>45215</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43319,7 +43319,7 @@
         <v>44902</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43433,7 +43433,7 @@
         <v>45875.67797453704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45875.3862962963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43557,7 +43557,7 @@
         <v>45874.4740625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45873.46881944445</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -43676,7 +43676,7 @@
         <v>45873.47069444445</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -43738,7 +43738,7 @@
         <v>45875.38579861111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -43800,7 +43800,7 @@
         <v>45868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -43857,7 +43857,7 @@
         <v>44775.94119212963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45877.63582175926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -43981,7 +43981,7 @@
         <v>45877.56710648148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44038,7 +44038,7 @@
         <v>45407.05797453703</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45196</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>45959.43579861111</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>45958.40675925926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45960.49020833334</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45960.46951388889</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45877.5738425926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44467,7 +44467,7 @@
         <v>45960.57361111111</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>45960.69841435185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45351.41600694445</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45265.9577199074</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45553.29927083333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>45219.42320601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>45481.92946759259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45877.51092592593</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45960.61547453704</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45020,7 +45020,7 @@
         <v>45624.61572916667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45961</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>45561.46900462963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44685.45633101852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44438</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45966.71946759259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45966.53177083333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45966.66768518519</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45511</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45967.62862268519</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45967.65983796296</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45569</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>45882</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45971.64445601852</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45883.59412037037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45736.40671296296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45971.54526620371</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45971.58337962963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45968</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46123,7 +46123,7 @@
         <v>45638.54635416667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46180,7 +46180,7 @@
         <v>45968.66726851852</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46237,7 +46237,7 @@
         <v>45968</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45968</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45883.57467592593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45883.63628472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46475,7 +46475,7 @@
         <v>45882</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45971.66145833334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45586.56431712963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -46651,7 +46651,7 @@
         <v>45208</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45208</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -46765,7 +46765,7 @@
         <v>45674.47496527778</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>45561.48825231481</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>45595.50820601852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -46936,7 +46936,7 @@
         <v>45524.55398148148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -46993,7 +46993,7 @@
         <v>45050</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47050,7 +47050,7 @@
         <v>45974.45790509259</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>44979</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45042</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45975.36277777778</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45974.53696759259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45426.54224537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45838.6778587963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47454,7 +47454,7 @@
         <v>45280</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -47511,7 +47511,7 @@
         <v>45280.92618055556</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47573,7 +47573,7 @@
         <v>45636.35909722222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -47630,7 +47630,7 @@
         <v>45979.34672453703</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -47692,7 +47692,7 @@
         <v>45734</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -47754,7 +47754,7 @@
         <v>45979.34543981482</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -47816,7 +47816,7 @@
         <v>45979.57696759259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -47873,7 +47873,7 @@
         <v>45981.31667824074</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -47930,7 +47930,7 @@
         <v>45981.55693287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -47992,7 +47992,7 @@
         <v>45330</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48049,7 +48049,7 @@
         <v>45981.64236111111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48106,7 +48106,7 @@
         <v>45980.59431712963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48168,7 +48168,7 @@
         <v>45749.59398148148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48225,7 +48225,7 @@
         <v>45981.63472222222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48282,7 +48282,7 @@
         <v>45985.38751157407</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48344,7 +48344,7 @@
         <v>45420.34979166667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48406,7 +48406,7 @@
         <v>45141.95964120371</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>45985.57662037037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         <v>45985.61513888889</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48582,7 +48582,7 @@
         <v>44825.60015046296</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -48639,7 +48639,7 @@
         <v>45985.61510416667</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -48696,7 +48696,7 @@
         <v>45985.63704861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -48753,7 +48753,7 @@
         <v>45236</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -48810,7 +48810,7 @@
         <v>44845</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -48867,7 +48867,7 @@
         <v>45985.61512731481</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -48924,7 +48924,7 @@
         <v>46029.46987268519</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -48981,7 +48981,7 @@
         <v>45986.38626157407</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49038,7 +49038,7 @@
         <v>45551.34488425926</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49095,7 +49095,7 @@
         <v>45390</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45987</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49209,7 +49209,7 @@
         <v>46029.60032407408</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         <v>44399</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>45987.42820601852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
         <v>45027</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         <v>45630.62520833333</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -49494,7 +49494,7 @@
         <v>45987.34506944445</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>45986.60412037037</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -49613,7 +49613,7 @@
         <v>45533.42659722222</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -49670,7 +49670,7 @@
         <v>45281.92891203704</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -49732,7 +49732,7 @@
         <v>45742.63574074074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -49794,7 +49794,7 @@
         <v>45502</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -49851,7 +49851,7 @@
         <v>45989.48791666667</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>45989.49638888889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -49965,7 +49965,7 @@
         <v>45989.50196759259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50022,7 +50022,7 @@
         <v>45684.50217592593</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50079,7 +50079,7 @@
         <v>45147</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50136,7 +50136,7 @@
         <v>45191</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50198,7 +50198,7 @@
         <v>46031.49944444445</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50255,7 +50255,7 @@
         <v>45989.48997685185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50317,7 +50317,7 @@
         <v>45989</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50374,7 +50374,7 @@
         <v>46031.62633101852</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50431,7 +50431,7 @@
         <v>46031.63359953704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -50488,7 +50488,7 @@
         <v>46031.64333333333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>46031.64733796296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -50602,7 +50602,7 @@
         <v>45988.61516203704</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -50659,7 +50659,7 @@
         <v>45988.65121527778</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -50716,7 +50716,7 @@
         <v>45988.66127314815</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -50773,7 +50773,7 @@
         <v>45988.7234375</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -50830,7 +50830,7 @@
         <v>45989.53782407408</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -50887,7 +50887,7 @@
         <v>46031.49096064815</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -50944,7 +50944,7 @@
         <v>45992</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51001,7 +51001,7 @@
         <v>45992.65116898148</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51058,7 +51058,7 @@
         <v>45993.33128472222</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51115,7 +51115,7 @@
         <v>45992.59430555555</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51177,7 +51177,7 @@
         <v>46034.32285879629</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51234,7 +51234,7 @@
         <v>45992</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         <v>45993.67987268518</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51348,7 +51348,7 @@
         <v>45993.6353125</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51405,7 +51405,7 @@
         <v>46035.58862268519</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -51462,7 +51462,7 @@
         <v>46034.331875</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -51519,7 +51519,7 @@
         <v>45595.4177662037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -51576,7 +51576,7 @@
         <v>45994.43094907407</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -51638,7 +51638,7 @@
         <v>46036.59519675926</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -51695,7 +51695,7 @@
         <v>46035</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -51752,7 +51752,7 @@
         <v>45020.94496527778</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -51814,7 +51814,7 @@
         <v>45995.55276620371</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45058</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>46036.62737268519</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45996.42769675926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52052,7 +52052,7 @@
         <v>45996.42826388889</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45996.42805555555</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52176,7 +52176,7 @@
         <v>45001</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52233,7 +52233,7 @@
         <v>44911.58445601852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52290,7 +52290,7 @@
         <v>45700.39645833334</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52347,7 +52347,7 @@
         <v>45729</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>46041.56872685185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>46043.58373842593</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -52518,7 +52518,7 @@
         <v>46001.65951388889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -52575,7 +52575,7 @@
         <v>45929</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>45453.95467592592</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -52699,7 +52699,7 @@
         <v>44575</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -52756,7 +52756,7 @@
         <v>44575.55935185185</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -52813,7 +52813,7 @@
         <v>45679.38309027778</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -52870,7 +52870,7 @@
         <v>44914</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -52927,7 +52927,7 @@
         <v>45399.94496527778</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -52989,7 +52989,7 @@
         <v>46043.57982638889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53046,7 +53046,7 @@
         <v>45199.97042824074</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53108,7 +53108,7 @@
         <v>45741</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53165,7 +53165,7 @@
         <v>46001.59416666667</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53222,7 +53222,7 @@
         <v>46001.59425925926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53279,7 +53279,7 @@
         <v>46045</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53341,7 +53341,7 @@
         <v>45534.42809027778</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53398,7 +53398,7 @@
         <v>44776</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -53455,7 +53455,7 @@
         <v>45742.34414351852</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -53517,7 +53517,7 @@
         <v>45742.34449074074</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -53579,7 +53579,7 @@
         <v>46034.58386574074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -53636,7 +53636,7 @@
         <v>46002.4403587963</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -53693,7 +53693,7 @@
         <v>44586</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -53750,7 +53750,7 @@
         <v>46003.62914351852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -53812,7 +53812,7 @@
         <v>45726.40868055556</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -53869,7 +53869,7 @@
         <v>46003.61158564815</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -53926,7 +53926,7 @@
         <v>46003.62962962963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -53988,7 +53988,7 @@
         <v>45294</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54050,7 +54050,7 @@
         <v>46045.56296296296</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54107,7 +54107,7 @@
         <v>45153.65226851852</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54164,7 +54164,7 @@
         <v>45120</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54221,7 +54221,7 @@
         <v>46006.490625</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>46048.60271990741</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45355</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -54397,7 +54397,7 @@
         <v>45355</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -54454,7 +54454,7 @@
         <v>45355</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -54511,7 +54511,7 @@
         <v>46006.32145833333</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -54568,7 +54568,7 @@
         <v>45686</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -54625,7 +54625,7 @@
         <v>45891</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -54687,7 +54687,7 @@
         <v>45499</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -54749,7 +54749,7 @@
         <v>46049.55258101852</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         <v>46050.61548611111</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -54868,7 +54868,7 @@
         <v>45594.57427083333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -54925,7 +54925,7 @@
         <v>45231</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>46051.49005787037</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55049,7 +55049,7 @@
         <v>46008.65883101852</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         <v>45959</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55168,7 +55168,7 @@
         <v>46008.6502662037</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55225,7 +55225,7 @@
         <v>46010.65959490741</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55282,7 +55282,7 @@
         <v>46052.36512731481</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55339,7 +55339,7 @@
         <v>44929</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -55396,7 +55396,7 @@
         <v>46055.59460648148</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -55458,7 +55458,7 @@
         <v>44924</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -55515,7 +55515,7 @@
         <v>46010.64340277778</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -55572,7 +55572,7 @@
         <v>46010.89377314815</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         <v>46052.32890046296</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -55686,7 +55686,7 @@
         <v>46051.95127314814</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -55743,7 +55743,7 @@
         <v>45470</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -55800,7 +55800,7 @@
         <v>46055.59442129629</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -55862,7 +55862,7 @@
         <v>45474.65244212963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -55919,7 +55919,7 @@
         <v>46013.61951388889</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -55976,7 +55976,7 @@
         <v>45236.96789351852</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56038,7 +56038,7 @@
         <v>45236</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56100,7 +56100,7 @@
         <v>46052.36511574074</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56157,7 +56157,7 @@
         <v>46052.36515046296</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56214,7 +56214,7 @@
         <v>46013.62353009259</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56271,7 +56271,7 @@
         <v>44895.66629629629</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56328,7 +56328,7 @@
         <v>45335</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -56390,7 +56390,7 @@
         <v>45086</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -56447,7 +56447,7 @@
         <v>46014.28792824074</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -56504,7 +56504,7 @@
         <v>46057</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -56561,7 +56561,7 @@
         <v>45387.37010416666</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -56618,7 +56618,7 @@
         <v>45219</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -56675,7 +56675,7 @@
         <v>46057</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -56732,7 +56732,7 @@
         <v>45078</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -56789,7 +56789,7 @@
         <v>44994.54274305556</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -56846,7 +56846,7 @@
         <v>46059.59258101852</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -56908,7 +56908,7 @@
         <v>45866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -56970,7 +56970,7 @@
         <v>45933.4900462963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57032,7 +57032,7 @@
         <v>45922.65715277778</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57094,7 +57094,7 @@
         <v>45933.46930555555</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57156,7 +57156,7 @@
         <v>45999.46935185185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57218,7 +57218,7 @@
         <v>45638</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57275,7 +57275,7 @@
         <v>45008</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -57332,7 +57332,7 @@
         <v>45060</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -57389,7 +57389,7 @@
         <v>45170</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -57446,7 +57446,7 @@
         <v>46029</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -57508,7 +57508,7 @@
         <v>45349</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -57565,7 +57565,7 @@
         <v>45929.40664351852</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -57627,7 +57627,7 @@
         <v>45664.47284722222</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -57684,7 +57684,7 @@
         <v>45169.93925925926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         <v>45968.59439814815</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -57808,7 +57808,7 @@
         <v>45733.33921296296</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -57865,7 +57865,7 @@
         <v>45979.67789351852</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -57927,7 +57927,7 @@
         <v>45895</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -57989,7 +57989,7 @@
         <v>45895.46922453704</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         <v>45932.67946759259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58113,7 +58113,7 @@
         <v>45968.59447916667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58175,7 +58175,7 @@
         <v>45972</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58237,7 +58237,7 @@
         <v>45915.51079861111</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58299,7 +58299,7 @@
         <v>45673.49039351852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -58361,7 +58361,7 @@
         <v>44575</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -58418,7 +58418,7 @@
         <v>45391.9533912037</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -58480,7 +58480,7 @@
         <v>45539.50243055556</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -58542,7 +58542,7 @@
         <v>44434</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -58599,7 +58599,7 @@
         <v>44740.66048611111</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -58656,7 +58656,7 @@
         <v>45678</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -58713,7 +58713,7 @@
         <v>45631.48989583334</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -58775,7 +58775,7 @@
         <v>45561</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>44987.60319444445</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45763.43650462963</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45502</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45503.32976851852</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45419.60266203704</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59127,7 +59127,7 @@
         <v>44606</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59184,7 +59184,7 @@
         <v>45170</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59241,7 +59241,7 @@
         <v>45653.66269675926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59298,7 +59298,7 @@
         <v>45420.49851851852</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -59360,7 +59360,7 @@
         <v>45387.4865625</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -59417,7 +59417,7 @@
         <v>45420</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -59479,7 +59479,7 @@
         <v>45200</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -59541,7 +59541,7 @@
         <v>45202.48180555556</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -59598,7 +59598,7 @@
         <v>45742.59415509259</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -59660,7 +59660,7 @@
         <v>45233.40039351852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -59717,7 +59717,7 @@
         <v>45079.94229166667</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         <v>44823</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -59836,7 +59836,7 @@
         <v>45441.58313657407</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -59893,7 +59893,7 @@
         <v>45236</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -59955,7 +59955,7 @@
         <v>45511</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60012,7 +60012,7 @@
         <v>45450</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60069,7 +60069,7 @@
         <v>45428.97185185185</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60131,7 +60131,7 @@
         <v>44874</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60188,7 +60188,7 @@
         <v>45714.59415509259</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60250,7 +60250,7 @@
         <v>45279.92739583334</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -60307,7 +60307,7 @@
         <v>45504</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -60364,7 +60364,7 @@
         <v>45259.46332175926</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -60421,7 +60421,7 @@
         <v>45548.66489583333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -60478,7 +60478,7 @@
         <v>45217.55832175926</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -60535,7 +60535,7 @@
         <v>45320</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         <v>45762.61128472222</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -60654,7 +60654,7 @@
         <v>45539.49776620371</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -60716,7 +60716,7 @@
         <v>45642</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -60773,7 +60773,7 @@
         <v>44712</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -60830,7 +60830,7 @@
         <v>45327</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -60887,7 +60887,7 @@
         <v>45009.56106481481</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -60944,7 +60944,7 @@
         <v>45502.46423611111</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61001,7 +61001,7 @@
         <v>45280.92613425926</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61063,7 +61063,7 @@
         <v>45280</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61125,7 +61125,7 @@
         <v>45166</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61187,7 +61187,7 @@
         <v>45560.61606481481</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61249,7 +61249,7 @@
         <v>45560.61496527777</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
         <v>44350</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>44594.48569444445</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -61425,7 +61425,7 @@
         <v>45742.55269675926</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45735.34424768519</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -61549,7 +61549,7 @@
         <v>45743.62734953704</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -61606,7 +61606,7 @@
         <v>45171</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -61663,7 +61663,7 @@
         <v>45148</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -61725,7 +61725,7 @@
         <v>44564</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -61782,7 +61782,7 @@
         <v>44575</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -61839,7 +61839,7 @@
         <v>45231.5221875</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -61896,7 +61896,7 @@
         <v>45561.47431712963</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -61953,7 +61953,7 @@
         <v>45685.59083333334</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62010,7 +62010,7 @@
         <v>44974</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62067,7 +62067,7 @@
         <v>45751.69967592593</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62124,7 +62124,7 @@
         <v>44841</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62186,7 +62186,7 @@
         <v>45202.46581018518</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62243,7 +62243,7 @@
         <v>44610</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -62300,7 +62300,7 @@
         <v>45327</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -62357,7 +62357,7 @@
         <v>45727.4261574074</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -62414,7 +62414,7 @@
         <v>45590.47684027778</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -62471,7 +62471,7 @@
         <v>45646.72293981481</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -62528,7 +62528,7 @@
         <v>45202</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -62585,7 +62585,7 @@
         <v>44286.58679398148</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -62642,7 +62642,7 @@
         <v>45293</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -62699,7 +62699,7 @@
         <v>45182</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45603.43164351852</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -62813,7 +62813,7 @@
         <v>45642.53166666667</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -62870,7 +62870,7 @@
         <v>45516</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -62927,7 +62927,7 @@
         <v>45749.58319444444</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -62984,7 +62984,7 @@
         <v>45674.47341435185</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63041,7 +63041,7 @@
         <v>45351</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63103,7 +63103,7 @@
         <v>45289</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63160,7 +63160,7 @@
         <v>45188.6505787037</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -63222,7 +63222,7 @@
         <v>45769.40174768519</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -63279,7 +63279,7 @@
         <v>45771.5743287037</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -63341,7 +63341,7 @@
         <v>45498.66611111111</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -63398,7 +63398,7 @@
         <v>45741.26008101852</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -63455,7 +63455,7 @@
         <v>44907.9645949074</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -63512,7 +63512,7 @@
         <v>45198</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -63574,7 +63574,7 @@
         <v>45205</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -63631,7 +63631,7 @@
         <v>45638.57283564815</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -63688,7 +63688,7 @@
         <v>45770.42762731481</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45359.5732175926</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -63807,7 +63807,7 @@
         <v>45779.37599537037</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45782.59024305556</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45780.39354166666</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45119.49261574074</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -64040,7 +64040,7 @@
         <v>45785</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45260</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -64159,7 +64159,7 @@
         <v>45784.34417824074</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45582.36490740741</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45789.57361111111</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45789.4903587963</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -64402,7 +64402,7 @@
         <v>45789.46931712963</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -64464,7 +64464,7 @@
         <v>45786.6349537037</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -64521,7 +64521,7 @@
         <v>45526.48329861111</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -64578,7 +64578,7 @@
         <v>45790.57836805555</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -64635,7 +64635,7 @@
         <v>45790.65690972222</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -64697,7 +64697,7 @@
         <v>45790.58265046297</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -64754,7 +64754,7 @@
         <v>45793.46954861111</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -64816,7 +64816,7 @@
         <v>45795.34442129629</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -64878,7 +64878,7 @@
         <v>45795.34497685185</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -64940,7 +64940,7 @@
         <v>45797.56049768518</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -64997,7 +64997,7 @@
         <v>45794.34425925926</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -65059,7 +65059,7 @@
         <v>45795.3446412037</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -65121,7 +65121,7 @@
         <v>45795.34472222222</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -65183,7 +65183,7 @@
         <v>45797.59502314815</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -65245,7 +65245,7 @@
         <v>45796.5216087963</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -65302,7 +65302,7 @@
         <v>45797.63576388889</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -65364,7 +65364,7 @@
         <v>45794.34436342592</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         <v>45795.34505787037</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -65488,7 +65488,7 @@
         <v>45794.34447916667</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
